--- a/data/communication.xlsx
+++ b/data/communication.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11879621be2b099b/BEN'S SOFTWARE/Documents/Python Projects/Ben's Python Computer Software/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2387235F-0414-4DCE-8BEA-D17B36FB0BF7}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D9AFBB-D2DA-492C-891E-15B5E73F8A08}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
   <si>
     <t>Text to Speech</t>
   </si>
@@ -246,6 +246,75 @@
   </si>
   <si>
     <t>I need medicine</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Volume Up</t>
+  </si>
+  <si>
+    <t>Volume Down</t>
+  </si>
+  <si>
+    <t>Play Metal</t>
+  </si>
+  <si>
+    <t>Play Disturbed</t>
+  </si>
+  <si>
+    <t>Okay Google. Play Disturbed on Pandora.</t>
+  </si>
+  <si>
+    <t>Next Song</t>
+  </si>
+  <si>
+    <t>Okay Google. Next Song.</t>
+  </si>
+  <si>
+    <t>Song Info</t>
+  </si>
+  <si>
+    <t>Okay Google. What's this song?</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Okay Google. What's the weather forecast?</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Okay Google. What time is it?</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Okay Google. Off.</t>
+  </si>
+  <si>
+    <t>Okay Google. Lower Volume by Ten Percent.</t>
+  </si>
+  <si>
+    <t>Okay Google. Increase Volume by Ten Percent.</t>
+  </si>
+  <si>
+    <t>Okay Google. Play Heavy Metal on Pandora.</t>
+  </si>
+  <si>
+    <t>Jokes</t>
+  </si>
+  <si>
+    <t>Okay Google. Tell me a joke.</t>
+  </si>
+  <si>
+    <t>Facts</t>
+  </si>
+  <si>
+    <t>Okay Google. Give me a random fun fact.</t>
   </si>
 </sst>
 </file>
@@ -787,6 +856,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A568168-7DDB-4797-892A-AB0658C0EAE1}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,6 +1658,127 @@
         <v>37</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/data/communication.xlsx
+++ b/data/communication.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11879621be2b099b/BEN'S SOFTWARE/Documents/Python Projects/Ben's Python Computer Software/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6D9AFBB-D2DA-492C-891E-15B5E73F8A08}"/>
+  <xr:revisionPtr revIDLastSave="236" documentId="8_{4C1010E2-7F04-764D-8733-8D91D755B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{259F8D41-FB12-4DC6-96E9-93D422F8E635}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D607C0AB-55B7-454E-A298-A46CDCF112BB}"/>
   </bookViews>
   <sheets>
     <sheet name="shows" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
   <si>
     <t>Text to Speech</t>
   </si>
@@ -311,10 +311,133 @@
     <t>Okay Google. Tell me a joke.</t>
   </si>
   <si>
-    <t>Facts</t>
-  </si>
-  <si>
-    <t>Okay Google. Give me a random fun fact.</t>
+    <t>Fart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay Google. Give me a fart. </t>
+  </si>
+  <si>
+    <t>Dan &amp; Sam</t>
+  </si>
+  <si>
+    <t>Hello, it's nice to meet you!</t>
+  </si>
+  <si>
+    <t>Film</t>
+  </si>
+  <si>
+    <t>I really liked your film</t>
+  </si>
+  <si>
+    <t>Free time?</t>
+  </si>
+  <si>
+    <t>Sam, what do you like to do  in your free time?</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Thank you for taking the time to talk to us</t>
+  </si>
+  <si>
+    <t>Goodbye, I hope we talk again sometime.</t>
+  </si>
+  <si>
+    <t>Why don’t skeletons fight each other?</t>
+  </si>
+  <si>
+    <t>They don’t have the guts</t>
+  </si>
+  <si>
+    <t>Joke 1</t>
+  </si>
+  <si>
+    <t>Punch 1</t>
+  </si>
+  <si>
+    <t>Why did the math book look sad?</t>
+  </si>
+  <si>
+    <t>It had too many problems.</t>
+  </si>
+  <si>
+    <t>Joke 2</t>
+  </si>
+  <si>
+    <t>Punch 2</t>
+  </si>
+  <si>
+    <t>Joke 3</t>
+  </si>
+  <si>
+    <t>Punch 3</t>
+  </si>
+  <si>
+    <t>Joke 4</t>
+  </si>
+  <si>
+    <t>Punch 4</t>
+  </si>
+  <si>
+    <t>Joke 5</t>
+  </si>
+  <si>
+    <t>Punch 5</t>
+  </si>
+  <si>
+    <t>Joke 6</t>
+  </si>
+  <si>
+    <t>Punch 6</t>
+  </si>
+  <si>
+    <t>Joke 7</t>
+  </si>
+  <si>
+    <t>Punch 7</t>
+  </si>
+  <si>
+    <t>Why can’t your nose be 12 inches long?</t>
+  </si>
+  <si>
+    <t>Because then it would be a foot.</t>
+  </si>
+  <si>
+    <t>Why did the golfer bring two pairs of pants?</t>
+  </si>
+  <si>
+    <t>In case he got a hole in one.</t>
+  </si>
+  <si>
+    <t>What do you call cheese that isn’t yours?</t>
+  </si>
+  <si>
+    <t>Nacho cheese.</t>
+  </si>
+  <si>
+    <t>Why did the photo go to jail?</t>
+  </si>
+  <si>
+    <t>It was framed.</t>
+  </si>
+  <si>
+    <t>I told my computer I needed a break</t>
+  </si>
+  <si>
+    <t>it froze.</t>
+  </si>
+  <si>
+    <t>Joke 8</t>
+  </si>
+  <si>
+    <t>Punch 8</t>
+  </si>
+  <si>
+    <t>Why did the bicycle fall over?</t>
+  </si>
+  <si>
+    <t>It was two-tired.</t>
   </si>
 </sst>
 </file>
@@ -1194,20 +1317,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A568168-7DDB-4797-892A-AB0658C0EAE1}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1218,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1229,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1240,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1407,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1306,7 +1429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1317,7 +1440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1350,7 +1473,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1361,7 +1484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1372,7 +1495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1383,7 +1506,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1394,7 +1517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1405,7 +1528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1416,7 +1539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1427,7 +1550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1449,7 +1572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -1460,7 +1583,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1471,7 +1594,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +1605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +1638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1526,7 +1649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -1559,7 +1682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1592,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -1603,7 +1726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +1737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1625,7 +1748,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1636,7 +1759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1658,7 +1781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
@@ -1669,7 +1792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -1680,7 +1803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1691,7 +1814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1702,7 +1825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -1713,7 +1836,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -1724,7 +1847,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -1735,7 +1858,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -1746,7 +1869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1757,7 +1880,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -1768,7 +1891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -1777,6 +1900,270 @@
       </c>
       <c r="C52" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
